--- a/Batch 2018-20/Sem 1/Subjects List.xlsx
+++ b/Batch 2018-20/Sem 1/Subjects List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D8ACB-2F1E-4AD8-9742-FA81F9CCA933}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E065F-E0AA-4F39-8786-2811A56EF586}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Subjects List</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Organisational Behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELD IN : </t>
+  </si>
+  <si>
+    <t>JANUARY 2019</t>
+  </si>
+  <si>
+    <t>Result Declared On :</t>
+  </si>
+  <si>
+    <t>10/02/2019</t>
   </si>
 </sst>
 </file>
@@ -109,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -187,37 +199,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
@@ -508,106 +535,134 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="140.7109375" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+    <row r="1" spans="2:3" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="2:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6fxRfT60TW9MxiBgMqsdFj8Brg/QW96Qc4dSAgEDB7Z0pqy+L104QiYOYORoFZBeKwqA/rppFTbHjguzRRbA/g==" saltValue="UsmhKt+hSBf4lWXoIF6kSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6KMxCdQlrtHA8/VVOIu6SFoY1QM/IsthCdibhCAsx03jK/nlwCvxXo6cXyruETm7ks7LEjXAhslKrVURfPfZTg==" saltValue="tBJ8bRSPN9f3qeOhDYvwyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
+    <protectedRange sqref="C15" name="RDO"/>
+    <protectedRange sqref="C13" name="HELD IN"/>
     <protectedRange sqref="C4 C5 C6 C7 C8 C9 C10 C11" name="Subjects"/>
   </protectedRanges>
-  <mergeCells count="6">
-    <mergeCell ref="B12:C1048576"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A1048576"/>
+    <mergeCell ref="D1:XFD1048576"/>
+    <mergeCell ref="B16:C1048576"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:A1048576"/>
-    <mergeCell ref="D1:XFD1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
